--- a/src/main/resources/file/wordDownload.xlsx
+++ b/src/main/resources/file/wordDownload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14988" windowHeight="8927"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,19 +79,17 @@
 }</t>
   </si>
   <si>
-    <t>[wɜːd]</t>
-  </si>
-  <si>
-    <t>[wɜːrd]</t>
-  </si>
-  <si>
-    <t>{
-    "n":[
+    <t>/wɜːd/</t>
+  </si>
+  <si>
+    <t>/wɜːrd/</t>
+  </si>
+  <si>
+    <t>[
         "term",
         "vocabulary",
-        "parole"
-    ]
-}</t>
+        "parole",
+    ]</t>
   </si>
   <si>
     <t>{
@@ -120,24 +118,20 @@
 }</t>
   </si>
   <si>
-    <t>[ɪnˈtɜː(r)]</t>
-  </si>
-  <si>
-    <t>[ɪnˈtɜːr]</t>
-  </si>
-  <si>
-    <t>{
-    "v":[
+    <t>/ɪnˈtɜː(r)/</t>
+  </si>
+  <si>
+    <t>/ɪnˈtɜːr/</t>
+  </si>
+  <si>
+    <t>[
         "entomb",
         "sepulchre",
-        "bury"
-    ],
-    "vt":[
+        "bury",
         "entomb",
         "bury",
         "hearse"
-    ]
-}</t>
+    ]</t>
   </si>
   <si>
     <t>{
@@ -1084,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1148,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="331.2" spans="1:10">
+    <row r="3" ht="273.6" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
